--- a/000 - P&R/00 data/dados_educ_ficticios_1.xlsx
+++ b/000 - P&R/00 data/dados_educ_ficticios_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\00 GitHub\R-Introduction\000 - P&amp;R\00 data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DB683F-6D75-460E-B9EF-F2AB3D29863F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2D17B5-1B7B-47F3-955E-62B66CBB0290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{179064BC-C262-471D-8515-EE95A94123CD}"/>
   </bookViews>
@@ -426,9 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2E3703-7EA7-42F6-B345-26910FCAC5D9}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
